--- a/IntranetPortal/IntranetPortal/App_Data/underwriter.xlsx
+++ b/IntranetPortal/IntranetPortal/App_Data/underwriter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TasksWebApplication\IntranetPortal\IntranetPortal\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12211"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Data Input" sheetId="4" r:id="rId1"/>
@@ -2185,6 +2185,30 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -2209,6 +2233,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -2230,14 +2262,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2297,30 +2321,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2679,28 +2679,28 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="94" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.59765625" style="94" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" style="94" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.09765625" style="94" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.09765625" style="94" customWidth="1"/>
-    <col min="8" max="8" width="20.69921875" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.796875" style="92" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="94" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="92" customWidth="1"/>
     <col min="11" max="11" width="22" style="92" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="177" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="92" customWidth="1"/>
-    <col min="14" max="16384" width="8.8984375" style="92"/>
+    <col min="14" max="16384" width="8.85546875" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="232"/>
       <c r="B1" s="206"/>
       <c r="C1" s="206"/>
@@ -2715,7 +2715,7 @@
       <c r="L1" s="207"/>
       <c r="M1" s="206"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="232"/>
       <c r="B2" s="233" t="s">
         <v>78</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="M2" s="206"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="232"/>
       <c r="B3" s="242" t="s">
         <v>0</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="M3" s="206"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="232"/>
       <c r="B4" s="244" t="s">
         <v>2</v>
@@ -2803,7 +2803,7 @@
       <c r="L4" s="207"/>
       <c r="M4" s="206"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="232"/>
       <c r="B5" s="245" t="s">
         <v>85</v>
@@ -2826,14 +2826,14 @@
         <v>2</v>
       </c>
       <c r="J5" s="206"/>
-      <c r="K5" s="318" t="s">
+      <c r="K5" s="324" t="s">
         <v>211</v>
       </c>
-      <c r="L5" s="319"/>
+      <c r="L5" s="325"/>
       <c r="M5" s="206"/>
       <c r="O5" s="300"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="232"/>
       <c r="B6" s="245" t="s">
         <v>89</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="M6" s="206"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="232"/>
       <c r="B7" s="245" t="s">
         <v>92</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="M7" s="206"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="232"/>
       <c r="B8" s="244" t="s">
         <v>94</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="M8" s="206"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="232"/>
       <c r="B9" s="244" t="s">
         <v>97</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="M9" s="206"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="232"/>
       <c r="B10" s="244" t="s">
         <v>100</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="M10" s="206"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="232"/>
       <c r="B11" s="243" t="s">
         <v>182</v>
@@ -3014,14 +3014,12 @@
       <c r="L11" s="195"/>
       <c r="M11" s="206"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="232"/>
       <c r="B12" s="248" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="280">
-        <v>9</v>
-      </c>
+      <c r="C12" s="280"/>
       <c r="D12" s="235"/>
       <c r="E12" s="245" t="s">
         <v>183</v>
@@ -3037,13 +3035,13 @@
         <v>76</v>
       </c>
       <c r="J12" s="206"/>
-      <c r="K12" s="320" t="s">
+      <c r="K12" s="326" t="s">
         <v>210</v>
       </c>
-      <c r="L12" s="321"/>
+      <c r="L12" s="327"/>
       <c r="M12" s="206"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="232"/>
       <c r="B13" s="238"/>
       <c r="C13" s="238"/>
@@ -3065,11 +3063,11 @@
       </c>
       <c r="L13" s="250">
         <f ca="1">C21+SUM(Tables!K9:K22)</f>
-        <v>43573.993534246576</v>
+        <v>-1426.0020273972602</v>
       </c>
       <c r="M13" s="206"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="232"/>
       <c r="B14" s="251" t="s">
         <v>142</v>
@@ -3099,7 +3097,7 @@
       </c>
       <c r="M14" s="206"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="232"/>
       <c r="B15" s="244" t="s">
         <v>84</v>
@@ -3123,7 +3121,7 @@
       </c>
       <c r="M15" s="206"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="232"/>
       <c r="B16" s="244" t="s">
         <v>82</v>
@@ -3149,7 +3147,7 @@
       </c>
       <c r="M16" s="206"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="232"/>
       <c r="B17" s="255" t="s">
         <v>73</v>
@@ -3175,7 +3173,7 @@
       </c>
       <c r="M17" s="206"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="232"/>
       <c r="B18" s="257" t="s">
         <v>88</v>
@@ -3196,7 +3194,7 @@
       <c r="L18" s="207"/>
       <c r="M18" s="206"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="232"/>
       <c r="B19" s="206"/>
       <c r="C19" s="259"/>
@@ -3211,13 +3209,13 @@
       <c r="H19" s="298"/>
       <c r="I19" s="298"/>
       <c r="J19" s="206"/>
-      <c r="K19" s="322" t="s">
+      <c r="K19" s="328" t="s">
         <v>212</v>
       </c>
-      <c r="L19" s="323"/>
+      <c r="L19" s="329"/>
       <c r="M19" s="206"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="232"/>
       <c r="B20" s="236" t="s">
         <v>107</v>
@@ -3239,7 +3237,7 @@
       </c>
       <c r="M20" s="206"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="232"/>
       <c r="B21" s="255" t="s">
         <v>165</v>
@@ -3263,18 +3261,18 @@
       </c>
       <c r="M21" s="206"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="232"/>
       <c r="B22" s="244" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="281"/>
       <c r="D22" s="238"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="350"/>
-      <c r="H22" s="350"/>
-      <c r="I22" s="351"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="319"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="319"/>
+      <c r="I22" s="320"/>
       <c r="J22" s="206"/>
       <c r="K22" s="267" t="s">
         <v>202</v>
@@ -3285,18 +3283,18 @@
       </c>
       <c r="M22" s="206"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="232"/>
       <c r="B23" s="244" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="281"/>
       <c r="D23" s="238"/>
-      <c r="E23" s="349"/>
-      <c r="F23" s="350"/>
-      <c r="G23" s="350"/>
-      <c r="H23" s="350"/>
-      <c r="I23" s="351"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="319"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="319"/>
+      <c r="I23" s="320"/>
       <c r="J23" s="206"/>
       <c r="K23" s="267" t="s">
         <v>213</v>
@@ -3307,18 +3305,18 @@
       </c>
       <c r="M23" s="206"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="232"/>
       <c r="B24" s="244" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="284"/>
       <c r="D24" s="238"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="350"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="350"/>
-      <c r="I24" s="351"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="319"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="320"/>
       <c r="J24" s="206"/>
       <c r="K24" s="270" t="s">
         <v>208</v>
@@ -3329,7 +3327,7 @@
       </c>
       <c r="M24" s="206"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="232"/>
       <c r="B25" s="245" t="s">
         <v>166</v>
@@ -3338,17 +3336,17 @@
         <v>0.05</v>
       </c>
       <c r="D25" s="238"/>
-      <c r="E25" s="349"/>
-      <c r="F25" s="350"/>
-      <c r="G25" s="350"/>
-      <c r="H25" s="350"/>
-      <c r="I25" s="351"/>
+      <c r="E25" s="318"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="320"/>
       <c r="J25" s="206"/>
       <c r="K25" s="206"/>
       <c r="L25" s="207"/>
       <c r="M25" s="206"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="232"/>
       <c r="B26" s="254" t="s">
         <v>172</v>
@@ -3357,11 +3355,11 @@
         <v>0.3</v>
       </c>
       <c r="D26" s="238"/>
-      <c r="E26" s="349"/>
-      <c r="F26" s="350"/>
-      <c r="G26" s="350"/>
-      <c r="H26" s="350"/>
-      <c r="I26" s="351"/>
+      <c r="E26" s="318"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="320"/>
       <c r="J26" s="206"/>
       <c r="K26" s="301" t="s">
         <v>217</v>
@@ -3372,140 +3370,140 @@
       </c>
       <c r="M26" s="206"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="232"/>
       <c r="B27" s="232"/>
       <c r="C27" s="232"/>
       <c r="D27" s="238"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="350"/>
-      <c r="G27" s="350"/>
-      <c r="H27" s="350"/>
-      <c r="I27" s="351"/>
+      <c r="E27" s="318"/>
+      <c r="F27" s="319"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="319"/>
+      <c r="I27" s="320"/>
       <c r="J27" s="206"/>
       <c r="K27" s="298"/>
       <c r="L27" s="299"/>
       <c r="M27" s="206"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="232"/>
       <c r="B28" s="263" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="272"/>
       <c r="D28" s="238"/>
-      <c r="E28" s="349"/>
-      <c r="F28" s="350"/>
-      <c r="G28" s="350"/>
-      <c r="H28" s="350"/>
-      <c r="I28" s="351"/>
+      <c r="E28" s="318"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="320"/>
       <c r="J28" s="206"/>
       <c r="K28" s="298"/>
       <c r="M28" s="206"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="232"/>
       <c r="B29" s="244" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="281"/>
       <c r="D29" s="238"/>
-      <c r="E29" s="349"/>
-      <c r="F29" s="350"/>
-      <c r="G29" s="350"/>
-      <c r="H29" s="350"/>
-      <c r="I29" s="351"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="319"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="319"/>
+      <c r="I29" s="320"/>
       <c r="J29" s="206"/>
       <c r="K29" s="298"/>
       <c r="L29" s="303"/>
       <c r="M29" s="206"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="232"/>
       <c r="B30" s="243" t="s">
         <v>215</v>
       </c>
       <c r="C30" s="287"/>
       <c r="D30" s="238"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="350"/>
-      <c r="G30" s="350"/>
-      <c r="H30" s="350"/>
-      <c r="I30" s="351"/>
+      <c r="E30" s="318"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="319"/>
+      <c r="H30" s="319"/>
+      <c r="I30" s="320"/>
       <c r="J30" s="206"/>
       <c r="K30" s="298"/>
       <c r="L30" s="299"/>
       <c r="M30" s="206"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="232"/>
       <c r="B31" s="244" t="s">
         <v>174</v>
       </c>
       <c r="C31" s="281"/>
       <c r="D31" s="238"/>
-      <c r="E31" s="349"/>
-      <c r="F31" s="350"/>
-      <c r="G31" s="350"/>
-      <c r="H31" s="350"/>
-      <c r="I31" s="351"/>
+      <c r="E31" s="318"/>
+      <c r="F31" s="319"/>
+      <c r="G31" s="319"/>
+      <c r="H31" s="319"/>
+      <c r="I31" s="320"/>
       <c r="J31" s="206"/>
       <c r="K31" s="298"/>
       <c r="L31" s="299"/>
       <c r="M31" s="206"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="232"/>
       <c r="B32" s="244" t="s">
         <v>176</v>
       </c>
       <c r="C32" s="288"/>
       <c r="D32" s="238"/>
-      <c r="E32" s="349"/>
-      <c r="F32" s="350"/>
-      <c r="G32" s="350"/>
-      <c r="H32" s="350"/>
-      <c r="I32" s="351"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="319"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="319"/>
+      <c r="I32" s="320"/>
       <c r="J32" s="206"/>
       <c r="K32" s="298"/>
       <c r="L32" s="299"/>
       <c r="M32" s="206"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="232"/>
       <c r="B33" s="244" t="s">
         <v>175</v>
       </c>
       <c r="C33" s="281"/>
       <c r="D33" s="238"/>
-      <c r="E33" s="349"/>
-      <c r="F33" s="350"/>
-      <c r="G33" s="350"/>
-      <c r="H33" s="350"/>
-      <c r="I33" s="351"/>
+      <c r="E33" s="318"/>
+      <c r="F33" s="319"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="319"/>
+      <c r="I33" s="320"/>
       <c r="J33" s="206"/>
       <c r="K33" s="298"/>
       <c r="L33" s="299"/>
       <c r="M33" s="206"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="232"/>
       <c r="B34" s="273" t="s">
         <v>167</v>
       </c>
       <c r="C34" s="289"/>
       <c r="D34" s="206"/>
-      <c r="E34" s="352"/>
-      <c r="F34" s="353"/>
-      <c r="G34" s="353"/>
-      <c r="H34" s="353"/>
-      <c r="I34" s="354"/>
+      <c r="E34" s="321"/>
+      <c r="F34" s="322"/>
+      <c r="G34" s="322"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="323"/>
       <c r="J34" s="206"/>
       <c r="K34" s="298"/>
       <c r="L34" s="299"/>
       <c r="M34" s="206"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="232"/>
       <c r="B35" s="232"/>
       <c r="C35" s="232"/>
@@ -3520,13 +3518,13 @@
       <c r="L35" s="207"/>
       <c r="M35" s="206"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="92"/>
       <c r="E36" s="92"/>
       <c r="F36" s="92"/>
       <c r="G36" s="92"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J37" s="184"/>
       <c r="M37" s="184"/>
     </row>
@@ -3605,21 +3603,21 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="92" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.69921875" style="94" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" style="94" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.69921875" style="92" customWidth="1"/>
-    <col min="10" max="16384" width="8.8984375" style="92"/>
+    <col min="1" max="1" width="2.7109375" style="92" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="94" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="94" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="92" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -3630,25 +3628,25 @@
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="324">
+      <c r="C2" s="332">
         <f>'Data Input'!C3</f>
         <v>1</v>
       </c>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="325"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="333"/>
       <c r="G2" s="65"/>
       <c r="H2" s="66" t="s">
         <v>54</v>
       </c>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61"/>
       <c r="B3" s="67" t="s">
         <v>2</v>
@@ -3672,24 +3670,24 @@
       </c>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
-      <c r="B4" s="328" t="s">
+      <c r="B4" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="329"/>
+      <c r="C4" s="337"/>
       <c r="D4" s="71"/>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="336" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="329"/>
+      <c r="F4" s="337"/>
       <c r="G4" s="72"/>
       <c r="H4" s="73" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="61"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="74" t="s">
         <v>143</v>
@@ -3712,14 +3710,14 @@
       </c>
       <c r="I5" s="61"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
       <c r="B6" s="76" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="227">
         <f ca="1">SUM(Tables!K9:K16)</f>
-        <v>-1426.0064657534247</v>
+        <v>-1426.0020273972602</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="76" t="s">
@@ -3736,14 +3734,14 @@
       </c>
       <c r="I6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="76" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="227">
         <f>SUM(Tables!K18:K22)</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="71"/>
       <c r="E7" s="76" t="s">
@@ -3759,7 +3757,7 @@
       </c>
       <c r="I7" s="61"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="76" t="s">
         <v>30</v>
@@ -3783,7 +3781,7 @@
       </c>
       <c r="I8" s="61"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="76" t="s">
         <v>57</v>
@@ -3800,7 +3798,7 @@
       <c r="I9" s="61"/>
       <c r="L9" s="111"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61"/>
       <c r="B10" s="76" t="s">
         <v>58</v>
@@ -3816,7 +3814,7 @@
       <c r="H10" s="163"/>
       <c r="I10" s="61"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
       <c r="B11" s="77" t="s">
         <v>61</v>
@@ -3837,7 +3835,7 @@
       <c r="H11" s="164"/>
       <c r="I11" s="61"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="62"/>
@@ -3848,7 +3846,7 @@
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="108"/>
       <c r="B13" s="108"/>
       <c r="C13" s="109"/>
@@ -3859,7 +3857,7 @@
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62"/>
@@ -3870,25 +3868,25 @@
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="324">
+      <c r="C15" s="332">
         <f>'Data Input'!C3</f>
         <v>1</v>
       </c>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="325"/>
+      <c r="D15" s="332"/>
+      <c r="E15" s="332"/>
+      <c r="F15" s="333"/>
       <c r="G15" s="65"/>
       <c r="H15" s="175" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="61"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61"/>
       <c r="B16" s="67" t="s">
         <v>2</v>
@@ -3912,24 +3910,24 @@
       </c>
       <c r="I16" s="61"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="61"/>
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="334" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="327"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="71"/>
-      <c r="E17" s="326" t="s">
+      <c r="E17" s="334" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="327"/>
+      <c r="F17" s="335"/>
       <c r="G17" s="82"/>
       <c r="H17" s="83" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="61"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="74" t="s">
         <v>38</v>
@@ -3952,14 +3950,14 @@
       </c>
       <c r="I18" s="61"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61"/>
       <c r="B19" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="100">
         <f ca="1">SUM(Tables!K9:K16)</f>
-        <v>-1426.0064657534247</v>
+        <v>-1426.0020273972602</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="76" t="s">
@@ -3976,14 +3974,14 @@
       </c>
       <c r="I19" s="61"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="76" t="s">
         <v>142</v>
       </c>
       <c r="C20" s="100">
         <f>SUM(Tables!K18:K22)</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="76" t="s">
@@ -3999,7 +3997,7 @@
       </c>
       <c r="I20" s="61"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="61"/>
       <c r="B21" s="76" t="s">
         <v>30</v>
@@ -4023,7 +4021,7 @@
       </c>
       <c r="I21" s="61"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="76" t="s">
         <v>57</v>
@@ -4041,7 +4039,7 @@
       </c>
       <c r="I22" s="61"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
       <c r="B23" s="76" t="s">
         <v>58</v>
@@ -4060,7 +4058,7 @@
       </c>
       <c r="I23" s="61"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="76" t="s">
         <v>62</v>
@@ -4078,7 +4076,7 @@
       </c>
       <c r="I24" s="61"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
       <c r="B25" s="76" t="s">
         <v>22</v>
@@ -4097,7 +4095,7 @@
       </c>
       <c r="I25" s="61"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="61"/>
       <c r="B26" s="77" t="s">
         <v>61</v>
@@ -4118,7 +4116,7 @@
       <c r="H26" s="183"/>
       <c r="I26" s="61"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -4129,7 +4127,7 @@
       <c r="H27" s="61"/>
       <c r="I27" s="61"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="108"/>
       <c r="B28" s="108"/>
       <c r="C28" s="109"/>
@@ -4140,7 +4138,7 @@
       <c r="H28" s="108"/>
       <c r="I28" s="108"/>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
@@ -4151,23 +4149,23 @@
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="324">
+      <c r="C30" s="332">
         <f>'Data Input'!C3</f>
         <v>1</v>
       </c>
-      <c r="D30" s="324"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="325"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="333"/>
       <c r="G30" s="65"/>
       <c r="H30" s="87"/>
       <c r="I30" s="61"/>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61"/>
       <c r="B31" s="67" t="s">
         <v>2</v>
@@ -4188,7 +4186,7 @@
       <c r="H31" s="89"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61"/>
       <c r="B32" s="330" t="s">
         <v>48</v>
@@ -4205,7 +4203,7 @@
       </c>
       <c r="I32" s="61"/>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61"/>
       <c r="B33" s="91" t="s">
         <v>51</v>
@@ -4229,7 +4227,7 @@
       </c>
       <c r="I33" s="61"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="61"/>
       <c r="B34" s="61"/>
       <c r="C34" s="62"/>
@@ -4240,7 +4238,7 @@
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61"/>
       <c r="B35" s="330" t="s">
         <v>48</v>
@@ -4257,7 +4255,7 @@
       </c>
       <c r="I35" s="61"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="74" t="s">
         <v>38</v>
@@ -4280,7 +4278,7 @@
       </c>
       <c r="I36" s="61"/>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61"/>
       <c r="B37" s="76" t="s">
         <v>30</v>
@@ -4304,7 +4302,7 @@
       </c>
       <c r="I37" s="61"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="76" t="s">
         <v>57</v>
@@ -4327,7 +4325,7 @@
       </c>
       <c r="I38" s="61"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="76" t="s">
         <v>58</v>
@@ -4351,7 +4349,7 @@
       </c>
       <c r="I39" s="61"/>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61"/>
       <c r="B40" s="77" t="s">
         <v>61</v>
@@ -4372,7 +4370,7 @@
       <c r="H40" s="81"/>
       <c r="I40" s="61"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
       <c r="B41" s="61"/>
       <c r="C41" s="62"/>
@@ -4386,17 +4384,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="11">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E39">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
@@ -4417,27 +4415,27 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="92" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="92" customWidth="1"/>
     <col min="4" max="4" width="3" style="92" customWidth="1"/>
-    <col min="5" max="5" width="14.296875" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="92" customWidth="1"/>
     <col min="7" max="7" width="3" style="92" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="93" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3" style="92" customWidth="1"/>
     <col min="10" max="10" width="3" style="223" customWidth="1"/>
-    <col min="11" max="11" width="6.09765625" style="206" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.09765625" style="207" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="206" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.09765625" style="206" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.296875" style="208" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.09765625" style="92"/>
+    <col min="11" max="11" width="6.140625" style="206" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="207" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="206" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="206" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="208" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.140625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -4464,18 +4462,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="324">
+      <c r="C2" s="332">
         <f>'Data Input'!C3</f>
         <v>1</v>
       </c>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="325"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="333"/>
       <c r="G2" s="61"/>
       <c r="H2" s="185" t="s">
         <v>202</v>
@@ -4497,16 +4495,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61"/>
       <c r="B3" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="336">
+      <c r="C3" s="342">
         <f>'Data Input'!C32</f>
         <v>0</v>
       </c>
-      <c r="D3" s="336"/>
+      <c r="D3" s="342"/>
       <c r="E3" s="63" t="s">
         <v>195</v>
       </c>
@@ -4540,16 +4538,16 @@
         <v>-0.17516481486768543</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61"/>
       <c r="B4" s="212" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="337" t="e">
+      <c r="C4" s="343" t="e">
         <f>IF('Data Input'!C34="",MATCH(1,INDEX(--(O2:O97&gt;F4),0),0),'Data Input'!C34)</f>
         <v>#N/A</v>
       </c>
-      <c r="D4" s="337"/>
+      <c r="D4" s="343"/>
       <c r="E4" s="213" t="s">
         <v>207</v>
       </c>
@@ -4582,17 +4580,17 @@
         <v>-0.23511010706684893</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
-      <c r="B5" s="332" t="s">
+      <c r="B5" s="338" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="333"/>
+      <c r="C5" s="339"/>
       <c r="D5" s="61"/>
-      <c r="E5" s="334" t="s">
+      <c r="E5" s="340" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="335"/>
+      <c r="F5" s="341"/>
       <c r="G5" s="61"/>
       <c r="H5" s="187" t="e">
         <f>C4</f>
@@ -4620,7 +4618,7 @@
         <v>-0.26626608880464792</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="215" t="s">
         <v>185</v>
@@ -4663,7 +4661,7 @@
         <v>-0.28591896860470872</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="218" t="s">
         <v>186</v>
@@ -4707,7 +4705,7 @@
         <v>-0.2998309562220936</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="219" t="s">
         <v>88</v>
@@ -4749,7 +4747,7 @@
         <v>-0.31047169193795709</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61"/>
       <c r="B9" s="76" t="s">
         <v>190</v>
@@ -4793,7 +4791,7 @@
         <v>-0.31907610390191005</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="76" t="s">
         <v>195</v>
@@ -4836,7 +4834,7 @@
         <v>-0.3263303605963172</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
       <c r="B11" s="221" t="s">
         <v>51</v>
@@ -4880,7 +4878,7 @@
         <v>-0.33264625183737839</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -4911,7 +4909,7 @@
         <v>-0.33828590742613379</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" s="206">
         <v>12</v>
       </c>
@@ -4932,7 +4930,7 @@
         <v>-0.34342415648711183</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="177"/>
       <c r="D14" s="224"/>
       <c r="K14" s="206">
@@ -4955,7 +4953,7 @@
         <v>-0.34818210558605012</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K15" s="206">
         <v>14</v>
       </c>
@@ -4976,7 +4974,7 @@
         <v>-0.35264632623730502</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K16" s="206">
         <v>15</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>-0.35688036741924034</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K17" s="206">
         <v>16</v>
       </c>
@@ -5018,7 +5016,7 @@
         <v>-0.36136986294390822</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="111"/>
       <c r="K18" s="206">
         <v>17</v>
@@ -5040,7 +5038,7 @@
         <v>-0.36566742746239078</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="225"/>
       <c r="K19" s="206">
         <v>18</v>
@@ -5062,7 +5060,7 @@
         <v>-0.36980928367123317</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K20" s="206">
         <v>19</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>-0.37382408192070365</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K21" s="206">
         <v>20</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>-0.37773479397883464</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K22" s="206">
         <v>21</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>-0.38156006572862505</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K23" s="206">
         <v>22</v>
       </c>
@@ -5146,7 +5144,7 @@
         <v>-0.38531520095614624</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K24" s="206">
         <v>23</v>
       </c>
@@ -5167,7 +5165,7 @@
         <v>-0.38901288850633764</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K25" s="206">
         <v>24</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>-0.39266374765768552</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K26" s="206">
         <v>25</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>-0.39627674261459961</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K27" s="206">
         <v>26</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>-0.39985950135512571</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K28" s="206">
         <v>27</v>
       </c>
@@ -5251,7 +5249,7 @@
         <v>-0.40341856363085637</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K29" s="206">
         <v>28</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>-0.40721481598988962</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K30" s="206">
         <v>29</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>-0.41163889714514978</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K31" s="206">
         <v>30</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>-0.41603579614147213</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="K32" s="206">
         <v>31</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>-0.42041203029950014</v>
       </c>
     </row>
-    <row r="33" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K33" s="206">
         <v>32</v>
       </c>
@@ -5356,7 +5354,7 @@
         <v>-0.42477335875470168</v>
       </c>
     </row>
-    <row r="34" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K34" s="206">
         <v>33</v>
       </c>
@@ -5377,7 +5375,7 @@
         <v>-0.4291248981554362</v>
       </c>
     </row>
-    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K35" s="206">
         <v>34</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>-0.43347121795567689</v>
       </c>
     </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K36" s="206">
         <v>35</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>-0.43781641938363125</v>
       </c>
     </row>
-    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K37" s="206">
         <v>36</v>
       </c>
@@ -5440,7 +5438,7 @@
         <v>-0.44216420126056055</v>
       </c>
     </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K38" s="206">
         <v>37</v>
       </c>
@@ -5461,7 +5459,7 @@
         <v>-0.44651791515777195</v>
       </c>
     </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K39" s="206">
         <v>38</v>
       </c>
@@ -5482,7 +5480,7 @@
         <v>-0.45088061185596862</v>
       </c>
     </row>
-    <row r="40" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K40" s="206">
         <v>39</v>
       </c>
@@ -5503,7 +5501,7 @@
         <v>-0.45525508066824083</v>
       </c>
     </row>
-    <row r="41" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K41" s="206">
         <v>40</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>-0.45982612434911313</v>
       </c>
     </row>
-    <row r="42" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K42" s="206">
         <v>41</v>
       </c>
@@ -5545,7 +5543,7 @@
         <v>-0.46440764034844406</v>
       </c>
     </row>
-    <row r="43" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K43" s="206">
         <v>42</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>-0.46900229901935031</v>
       </c>
     </row>
-    <row r="44" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K44" s="206">
         <v>43</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>-0.47361257239318866</v>
       </c>
     </row>
-    <row r="45" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K45" s="206">
         <v>44</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>-0.47824075745029387</v>
       </c>
     </row>
-    <row r="46" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K46" s="206">
         <v>45</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>-0.48288899629871851</v>
       </c>
     </row>
-    <row r="47" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K47" s="206">
         <v>46</v>
       </c>
@@ -5650,7 +5648,7 @@
         <v>-0.48755929373165618</v>
       </c>
     </row>
-    <row r="48" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K48" s="206">
         <v>47</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>-0.49225353255411147</v>
       </c>
     </row>
-    <row r="49" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K49" s="206">
         <v>48</v>
       </c>
@@ -5692,7 +5690,7 @@
         <v>-0.49697348700429378</v>
       </c>
     </row>
-    <row r="50" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K50" s="206">
         <v>49</v>
       </c>
@@ -5713,7 +5711,7 @@
         <v>-0.50172083454206939</v>
       </c>
     </row>
-    <row r="51" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K51" s="206">
         <v>50</v>
       </c>
@@ -5734,7 +5732,7 @@
         <v>-0.5064971662332407</v>
       </c>
     </row>
-    <row r="52" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K52" s="206">
         <v>51</v>
       </c>
@@ -5755,7 +5753,7 @@
         <v>-0.51130399592253295</v>
       </c>
     </row>
-    <row r="53" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K53" s="206">
         <v>52</v>
       </c>
@@ -5776,7 +5774,7 @@
         <v>-0.51628575782223785</v>
       </c>
     </row>
-    <row r="54" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K54" s="206">
         <v>53</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>-0.52129755388083354</v>
       </c>
     </row>
-    <row r="55" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K55" s="206">
         <v>54</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>-0.52634092534899812</v>
       </c>
     </row>
-    <row r="56" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K56" s="206">
         <v>55</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>-0.53141734865827361</v>
       </c>
     </row>
-    <row r="57" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K57" s="206">
         <v>56</v>
       </c>
@@ -5860,7 +5858,7 @@
         <v>-0.53652824190490311</v>
       </c>
     </row>
-    <row r="58" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K58" s="206">
         <v>57</v>
       </c>
@@ -5881,7 +5879,7 @@
         <v>-0.54167497066142367</v>
       </c>
     </row>
-    <row r="59" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K59" s="206">
         <v>58</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>-0.54685885319729532</v>
       </c>
     </row>
-    <row r="60" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K60" s="206">
         <v>59</v>
       </c>
@@ -5923,7 +5921,7 @@
         <v>-0.55208116517883432</v>
       </c>
     </row>
-    <row r="61" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K61" s="206">
         <v>60</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>-0.55734314390934925</v>
       </c>
     </row>
-    <row r="62" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K62" s="206">
         <v>61</v>
       </c>
@@ -5965,7 +5963,7 @@
         <v>-0.56264599216239075</v>
       </c>
     </row>
-    <row r="63" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K63" s="206">
         <v>62</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>-0.56799088165420764</v>
       </c>
     </row>
-    <row r="64" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K64" s="206">
         <v>63</v>
       </c>
@@ -6007,7 +6005,7 @@
         <v>-0.57337895619564683</v>
       </c>
     </row>
-    <row r="65" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K65" s="206">
         <v>64</v>
       </c>
@@ -6028,7 +6026,7 @@
         <v>-0.57892983707677537</v>
       </c>
     </row>
-    <row r="66" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K66" s="206">
         <v>65</v>
       </c>
@@ -6049,7 +6047,7 @@
         <v>-0.58452422208446642</v>
       </c>
     </row>
-    <row r="67" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K67" s="206">
         <v>66</v>
       </c>
@@ -6070,7 +6068,7 @@
         <v>-0.5901632995606918</v>
       </c>
     </row>
-    <row r="68" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K68" s="206">
         <v>67</v>
       </c>
@@ -6091,7 +6089,7 @@
         <v>-0.59584823367990658</v>
       </c>
     </row>
-    <row r="69" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K69" s="206">
         <v>68</v>
       </c>
@@ -6112,7 +6110,7 @@
         <v>-0.60158016691742688</v>
       </c>
     </row>
-    <row r="70" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K70" s="206">
         <v>69</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>-0.60736022231338826</v>
       </c>
     </row>
-    <row r="71" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K71" s="206">
         <v>70</v>
       </c>
@@ -6154,7 +6152,7 @@
         <v>-0.61318950555287333</v>
       </c>
     </row>
-    <row r="72" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K72" s="206">
         <v>71</v>
       </c>
@@ -6175,7 +6173,7 @@
         <v>-0.619069106880488</v>
       </c>
     </row>
-    <row r="73" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K73" s="206">
         <v>72</v>
       </c>
@@ -6196,7 +6194,7 @@
         <v>-0.62500010286563001</v>
       </c>
     </row>
-    <row r="74" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K74" s="206">
         <v>73</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>-0.63098355803292083</v>
       </c>
     </row>
-    <row r="75" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K75" s="206">
         <v>74</v>
       </c>
@@ -6238,7 +6236,7 @@
         <v>-0.63702052637070627</v>
       </c>
     </row>
-    <row r="76" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K76" s="206">
         <v>75</v>
       </c>
@@ -6259,7 +6257,7 @@
         <v>-0.64311205272915639</v>
       </c>
     </row>
-    <row r="77" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K77" s="206">
         <v>76</v>
       </c>
@@ -6280,7 +6278,7 @@
         <v>-0.64936096154433798</v>
       </c>
     </row>
-    <row r="78" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K78" s="206">
         <v>77</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>-0.65566535892068689</v>
       </c>
     </row>
-    <row r="79" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K79" s="206">
         <v>78</v>
       </c>
@@ -6322,7 +6320,7 @@
         <v>-0.66202633576678116</v>
       </c>
     </row>
-    <row r="80" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K80" s="206">
         <v>79</v>
       </c>
@@ -6343,7 +6341,7 @@
         <v>-0.66844497551922422</v>
       </c>
     </row>
-    <row r="81" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K81" s="206">
         <v>80</v>
       </c>
@@ -6364,7 +6362,7 @@
         <v>-0.67492235531714551</v>
       </c>
     </row>
-    <row r="82" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K82" s="206">
         <v>81</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>-0.68145954710018364</v>
       </c>
     </row>
-    <row r="83" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K83" s="206">
         <v>82</v>
       </c>
@@ -6406,7 +6404,7 @@
         <v>-0.68805761863663706</v>
       </c>
     </row>
-    <row r="84" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K84" s="206">
         <v>83</v>
       </c>
@@ -6427,7 +6425,7 @@
         <v>-0.69471763448783075</v>
       </c>
     </row>
-    <row r="85" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K85" s="206">
         <v>84</v>
       </c>
@@ -6448,7 +6446,7 @@
         <v>-0.70144065691416613</v>
       </c>
     </row>
-    <row r="86" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K86" s="206">
         <v>85</v>
       </c>
@@ -6469,7 +6467,7 @@
         <v>-0.70822774672781708</v>
       </c>
     </row>
-    <row r="87" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K87" s="206">
         <v>86</v>
       </c>
@@ -6490,7 +6488,7 @@
         <v>-0.7150799640965706</v>
       </c>
     </row>
-    <row r="88" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K88" s="206">
         <v>87</v>
       </c>
@@ -6511,7 +6509,7 @@
         <v>-0.72199836930289985</v>
       </c>
     </row>
-    <row r="89" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K89" s="206">
         <v>88</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>-0.72907368893093727</v>
       </c>
     </row>
-    <row r="90" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K90" s="206">
         <v>89</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>-0.73621663505551938</v>
       </c>
     </row>
-    <row r="91" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K91" s="206">
         <v>90</v>
       </c>
@@ -6574,7 +6572,7 @@
         <v>-0.743428315026336</v>
       </c>
     </row>
-    <row r="92" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K92" s="206">
         <v>91</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>-0.75070983738775499</v>
       </c>
     </row>
-    <row r="93" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K93" s="206">
         <v>92</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>-0.75806231255380307</v>
       </c>
     </row>
-    <row r="94" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K94" s="206">
         <v>93</v>
       </c>
@@ -6637,7 +6635,7 @@
         <v>-0.76548685345058098</v>
       </c>
     </row>
-    <row r="95" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K95" s="206">
         <v>94</v>
       </c>
@@ -6658,7 +6656,7 @@
         <v>-0.77298457612869687</v>
       </c>
     </row>
-    <row r="96" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K96" s="206">
         <v>95</v>
       </c>
@@ -6679,7 +6677,7 @@
         <v>-0.78055660034809338</v>
       </c>
     </row>
-    <row r="97" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K97" s="206">
         <v>96</v>
       </c>
@@ -6700,7 +6698,7 @@
         <v>-0.7882040501374461</v>
       </c>
     </row>
-    <row r="98" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K98" s="206">
         <v>97</v>
       </c>
@@ -6721,7 +6719,7 @@
         <v>-0.79592805433013036</v>
       </c>
     </row>
-    <row r="99" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K99" s="206">
         <v>98</v>
       </c>
@@ -6742,7 +6740,7 @@
         <v>-0.8037297470786009</v>
       </c>
     </row>
-    <row r="100" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K100" s="206">
         <v>99</v>
       </c>
@@ -6763,47 +6761,47 @@
         <v>-0.81161026834887207</v>
       </c>
     </row>
-    <row r="101" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M101" s="207"/>
       <c r="N101" s="207"/>
     </row>
-    <row r="102" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M102" s="207"/>
       <c r="N102" s="207"/>
     </row>
-    <row r="103" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M103" s="207"/>
       <c r="N103" s="207"/>
     </row>
-    <row r="104" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M104" s="207"/>
       <c r="N104" s="207"/>
     </row>
-    <row r="105" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M105" s="207"/>
       <c r="N105" s="207"/>
     </row>
-    <row r="106" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M106" s="207"/>
       <c r="N106" s="207"/>
     </row>
-    <row r="107" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M107" s="207"/>
       <c r="N107" s="207"/>
     </row>
-    <row r="108" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M108" s="207"/>
       <c r="N108" s="207"/>
     </row>
-    <row r="109" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M109" s="207"/>
       <c r="N109" s="207"/>
     </row>
-    <row r="110" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M110" s="207"/>
       <c r="N110" s="207"/>
     </row>
-    <row r="111" spans="11:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="11:15" x14ac:dyDescent="0.25">
       <c r="M111" s="207"/>
       <c r="N111" s="207"/>
     </row>
@@ -6829,38 +6827,38 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.8984375" customWidth="1"/>
-    <col min="10" max="10" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" style="95" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="95" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="345" t="s">
+      <c r="C1" s="351" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="346"/>
+      <c r="D1" s="352"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -6868,13 +6866,13 @@
       <c r="J1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="338">
+      <c r="K1" s="344">
         <f>'Data Input'!C3</f>
         <v>1</v>
       </c>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="339"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
       <c r="O1" s="136" t="s">
         <v>168</v>
       </c>
@@ -6885,19 +6883,19 @@
       <c r="Q1" s="167"/>
       <c r="R1" s="168"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="116"/>
       <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="344" t="s">
+      <c r="D2" s="350" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="344"/>
-      <c r="F2" s="347" t="s">
+      <c r="E2" s="350"/>
+      <c r="F2" s="353" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="347"/>
+      <c r="G2" s="353"/>
       <c r="H2" s="10"/>
       <c r="J2" s="58" t="s">
         <v>2</v>
@@ -6922,7 +6920,7 @@
       <c r="Q2" s="132"/>
       <c r="R2" s="140"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="117" t="s">
         <v>124</v>
       </c>
@@ -6930,16 +6928,16 @@
         <f ca="1">Tables!K6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D3" s="348" t="e">
+      <c r="D3" s="354" t="e">
         <f ca="1">IF(Tables!O13&gt;=Tables!K6,Tables!K6,Tables!O13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348" t="e">
+      <c r="E3" s="354"/>
+      <c r="F3" s="354" t="e">
         <f ca="1">Tables!O13-Tables!D3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G3" s="348"/>
+      <c r="G3" s="354"/>
       <c r="H3" s="10"/>
       <c r="J3" s="51" t="s">
         <v>170</v>
@@ -6954,7 +6952,7 @@
       </c>
       <c r="N3" s="60">
         <f>'Data Input'!C12</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O3" s="143" t="s">
         <v>1</v>
@@ -6965,7 +6963,7 @@
       <c r="Q3" s="142"/>
       <c r="R3" s="144"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
         <v>125</v>
       </c>
@@ -6977,7 +6975,7 @@
       <c r="H4" s="13"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="118" t="s">
         <v>126</v>
       </c>
@@ -7010,12 +7008,12 @@
         <v>3</v>
       </c>
       <c r="O5" s="126"/>
-      <c r="Q5" s="320" t="s">
+      <c r="Q5" s="326" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="321"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R5" s="327"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="118" t="s">
         <v>101</v>
       </c>
@@ -7064,7 +7062,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
         <v>127</v>
       </c>
@@ -7113,7 +7111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.7" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="119" t="s">
         <v>128</v>
       </c>
@@ -7162,7 +7160,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="120"/>
       <c r="C9" s="17">
         <v>500001</v>
@@ -7209,7 +7207,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="115" t="s">
         <v>129</v>
       </c>
@@ -7252,7 +7250,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="116"/>
       <c r="C11" s="17">
         <v>5000001</v>
@@ -7290,12 +7288,12 @@
       <c r="O11" s="145">
         <v>500</v>
       </c>
-      <c r="Q11" s="340" t="s">
+      <c r="Q11" s="346" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="341"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R11" s="347"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="117" t="s">
         <v>130</v>
       </c>
@@ -7341,7 +7339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>131</v>
       </c>
@@ -7382,7 +7380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="121" t="s">
         <v>132</v>
       </c>
@@ -7416,17 +7414,17 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="118" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="344" t="s">
+      <c r="D15" s="350" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="344"/>
+      <c r="E15" s="350"/>
       <c r="F15" s="132"/>
       <c r="G15" s="314" t="s">
         <v>46</v>
@@ -7459,7 +7457,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.7" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="118" t="s">
         <v>134</v>
       </c>
@@ -7489,7 +7487,7 @@
       </c>
       <c r="K16" s="147">
         <f ca="1">IF('Data Input'!I14="",0,'Data Input'!I13*(1+(TODAY()+180-'Data Input'!I14)*L16))</f>
-        <v>-1435.8064657534246</v>
+        <v>-1435.8020273972602</v>
       </c>
       <c r="L16" s="159">
         <f>9%/365</f>
@@ -7509,7 +7507,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16.7" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="118" t="s">
         <v>135</v>
       </c>
@@ -7532,7 +7530,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="119" t="s">
         <v>109</v>
       </c>
@@ -7568,7 +7566,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="120"/>
       <c r="C19" s="55" t="s">
         <v>70</v>
@@ -7606,7 +7604,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="122" t="s">
         <v>75</v>
       </c>
@@ -7634,12 +7632,12 @@
         <f>((IF('Data Input'!C2="Residential",IF(AND(O13&gt;0,O13&lt;=500000),"2.0%",IF(O13&gt;500000,"2.125%","")),IF(AND(O13&gt;0,O13&lt;=500000),"2.0%",IF(O13&gt;500000,"2.75%",""))))*O13)+(275)+1500</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q20" s="342" t="s">
+      <c r="Q20" s="348" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="343"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.149999999999999" x14ac:dyDescent="0.35">
+      <c r="R20" s="349"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="123"/>
       <c r="C21" s="52" t="s">
         <v>67</v>
@@ -7659,7 +7657,7 @@
       </c>
       <c r="K21" s="145">
         <f>'Data Input'!C12*5000</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="L21" s="153"/>
       <c r="N21" s="127" t="s">
@@ -7677,7 +7675,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="124" t="s">
         <v>76</v>
       </c>
@@ -7719,7 +7717,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16.7" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="125" t="s">
         <v>77</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="120"/>
       <c r="F24" s="5"/>
       <c r="G24" s="171"/>
@@ -7775,7 +7773,7 @@
       <c r="O24" s="131"/>
       <c r="P24" s="135"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="122" t="s">
         <v>136</v>
       </c>
@@ -7801,7 +7799,7 @@
       <c r="O25" s="131"/>
       <c r="P25" s="135"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="124"/>
       <c r="C26" s="2" t="s">
         <v>1</v>
@@ -7815,7 +7813,7 @@
       </c>
       <c r="H26" s="307">
         <f ca="1">'Data Input'!C21+SUM(Tables!K9:K16,K18,K20:K22)</f>
-        <v>43573.993534246576</v>
+        <v>-1426.0020273972602</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="127" t="s">
@@ -7830,7 +7828,7 @@
       <c r="O26" s="135"/>
       <c r="P26" s="135"/>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="124" t="s">
         <v>77</v>
       </c>
@@ -7859,7 +7857,7 @@
       <c r="O27" s="134"/>
       <c r="P27" s="134"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="124" t="s">
         <v>137</v>
       </c>
@@ -7883,7 +7881,7 @@
       <c r="M28" s="134"/>
       <c r="P28" s="134"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="124" t="s">
         <v>138</v>
       </c>
@@ -7908,7 +7906,7 @@
       </c>
       <c r="L29" s="155"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="124" t="s">
         <v>87</v>
       </c>
@@ -7930,7 +7928,7 @@
       <c r="K30" s="149"/>
       <c r="L30" s="158"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="124" t="s">
         <v>139</v>
       </c>
@@ -7947,7 +7945,7 @@
       </c>
       <c r="L31" s="155"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="125" t="s">
         <v>140</v>
       </c>
@@ -7964,7 +7962,7 @@
       </c>
       <c r="L32" s="155"/>
     </row>
-    <row r="33" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F33" s="5"/>
       <c r="G33" s="170"/>
       <c r="H33" s="134"/>
@@ -7978,7 +7976,7 @@
       </c>
       <c r="L33" s="156"/>
     </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="G34" s="170"/>
       <c r="H34" s="134"/>
@@ -7988,7 +7986,7 @@
       <c r="L34" s="171"/>
       <c r="M34" s="134"/>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="G35" s="170"/>
       <c r="H35" s="134"/>

--- a/IntranetPortal/IntranetPortal/App_Data/underwriter.xlsx
+++ b/IntranetPortal/IntranetPortal/App_Data/underwriter.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Data Input" sheetId="4" r:id="rId1"/>
     <sheet name="Flip Sheets" sheetId="3" r:id="rId2"/>
     <sheet name="Rental Model" sheetId="7" r:id="rId3"/>
-    <sheet name="Tables" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Tables" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="200">
   <si>
     <t>Property Address:</t>
   </si>
@@ -857,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1166,6 +1166,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1181,7 +1218,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1880,10 +1917,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1908,22 +1941,10 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1934,10 +1955,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2066,26 +2083,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -2110,14 +2111,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -2152,6 +2145,46 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -2212,35 +2245,35 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2650,7 +2683,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,17 +2753,17 @@
       <c r="B3" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="250"/>
+      <c r="C3" s="246"/>
       <c r="D3" s="191"/>
-      <c r="E3" s="252" t="s">
+      <c r="E3" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="253"/>
+      <c r="F3" s="310"/>
       <c r="G3" s="194"/>
       <c r="H3" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="304"/>
+      <c r="I3" s="310"/>
       <c r="J3" s="164"/>
       <c r="K3" s="196" t="s">
         <v>142</v>
@@ -2751,12 +2784,12 @@
       <c r="E4" s="199" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="246"/>
+      <c r="F4" s="296"/>
       <c r="G4" s="194"/>
       <c r="H4" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="305"/>
+      <c r="I4" s="312"/>
       <c r="J4" s="164"/>
       <c r="K4" s="164"/>
       <c r="L4" s="165"/>
@@ -2772,17 +2805,19 @@
       <c r="E5" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="240"/>
+      <c r="F5" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G5" s="194"/>
       <c r="H5" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="305"/>
+      <c r="I5" s="312"/>
       <c r="J5" s="164"/>
-      <c r="K5" s="318" t="s">
+      <c r="K5" s="317" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="319"/>
+      <c r="L5" s="318"/>
       <c r="M5" s="164"/>
       <c r="O5" s="221"/>
     </row>
@@ -2791,22 +2826,24 @@
       <c r="B6" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="251"/>
+      <c r="C6" s="247"/>
       <c r="D6" s="191"/>
       <c r="E6" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="240"/>
+      <c r="F6" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G6" s="194"/>
       <c r="H6" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="305"/>
+      <c r="I6" s="312"/>
       <c r="J6" s="164"/>
-      <c r="K6" s="265" t="s">
+      <c r="K6" s="260" t="s">
         <v>167</v>
       </c>
-      <c r="L6" s="266" t="e">
+      <c r="L6" s="261" t="e">
         <f ca="1">SUM(Tables!B6:B25)</f>
         <v>#VALUE!</v>
       </c>
@@ -2822,17 +2859,19 @@
       <c r="E7" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="306"/>
+      <c r="F7" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="194"/>
       <c r="H7" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="305"/>
+      <c r="I7" s="312"/>
       <c r="J7" s="164"/>
-      <c r="K7" s="267" t="s">
+      <c r="K7" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="268" t="e">
+      <c r="L7" s="263" t="e">
         <f ca="1">'Flip Sheets'!C26</f>
         <v>#VALUE!</v>
       </c>
@@ -2845,20 +2884,22 @@
       </c>
       <c r="C8" s="238"/>
       <c r="D8" s="191"/>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="250" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="293"/>
+      <c r="F8" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="194"/>
       <c r="H8" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="305"/>
+      <c r="I8" s="312"/>
       <c r="J8" s="164"/>
-      <c r="K8" s="267" t="s">
+      <c r="K8" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="268" t="e">
+      <c r="L8" s="263" t="e">
         <f ca="1">'Flip Sheets'!H23</f>
         <v>#VALUE!</v>
       </c>
@@ -2866,25 +2907,27 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="188"/>
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="293"/>
+      <c r="C9" s="288"/>
       <c r="D9" s="191"/>
       <c r="E9" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="240"/>
+      <c r="F9" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="194"/>
       <c r="H9" s="200" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="305"/>
+      <c r="I9" s="312"/>
       <c r="J9" s="164"/>
-      <c r="K9" s="267" t="s">
+      <c r="K9" s="262" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="269" t="e">
+      <c r="L9" s="264" t="e">
         <f ca="1">'Flip Sheets'!F26</f>
         <v>#VALUE!</v>
       </c>
@@ -2892,25 +2935,27 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="188"/>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="250" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="293"/>
+      <c r="C10" s="288"/>
       <c r="D10" s="191"/>
       <c r="E10" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="240"/>
+      <c r="F10" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G10" s="194"/>
       <c r="H10" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="305"/>
+      <c r="I10" s="312"/>
       <c r="J10" s="164"/>
-      <c r="K10" s="270" t="s">
+      <c r="K10" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="271" t="e">
+      <c r="L10" s="266" t="e">
         <f ca="1">'Flip Sheets'!H25</f>
         <v>#VALUE!</v>
       </c>
@@ -2921,17 +2966,19 @@
       <c r="B11" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="294"/>
+      <c r="C11" s="289"/>
       <c r="D11" s="191"/>
       <c r="E11" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="240"/>
+      <c r="F11" s="239" t="s">
+        <v>67</v>
+      </c>
       <c r="G11" s="194"/>
-      <c r="H11" s="254" t="s">
+      <c r="H11" s="249" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="305"/>
+      <c r="I11" s="312"/>
       <c r="J11" s="164"/>
       <c r="K11" s="157"/>
       <c r="L11" s="158"/>
@@ -2942,22 +2989,22 @@
       <c r="B12" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="303"/>
+      <c r="C12" s="294"/>
       <c r="D12" s="191"/>
       <c r="E12" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="240"/>
+      <c r="F12" s="239"/>
       <c r="G12" s="194"/>
       <c r="H12" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="305"/>
+      <c r="I12" s="296"/>
       <c r="J12" s="164"/>
-      <c r="K12" s="320" t="s">
+      <c r="K12" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="321"/>
+      <c r="L12" s="320"/>
       <c r="M12" s="164"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2965,7 +3012,7 @@
       <c r="B13" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="240"/>
+      <c r="C13" s="239"/>
       <c r="D13" s="191"/>
       <c r="E13" s="201" t="s">
         <v>147</v>
@@ -2975,7 +3022,9 @@
       <c r="H13" s="200" t="s">
         <v>186</v>
       </c>
-      <c r="I13" s="240"/>
+      <c r="I13" s="315" t="s">
+        <v>67</v>
+      </c>
       <c r="J13" s="164"/>
       <c r="K13" s="203" t="s">
         <v>167</v>
@@ -2991,19 +3040,19 @@
       <c r="B14" s="199" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="240" t="s">
+      <c r="C14" s="239" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="207"/>
       <c r="E14" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="247"/>
+      <c r="F14" s="245"/>
       <c r="G14" s="194"/>
       <c r="H14" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="I14" s="305"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="164"/>
       <c r="K14" s="159" t="s">
         <v>8</v>
@@ -3019,17 +3068,17 @@
       <c r="B15" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="241"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="207"/>
       <c r="E15" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="247"/>
+      <c r="F15" s="245"/>
       <c r="G15" s="194"/>
-      <c r="H15" s="254" t="s">
+      <c r="H15" s="249" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="306"/>
+      <c r="I15" s="296"/>
       <c r="J15" s="164"/>
       <c r="K15" s="159" t="s">
         <v>17</v>
@@ -3048,12 +3097,14 @@
       <c r="E16" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="306"/>
+      <c r="F16" s="307"/>
       <c r="G16" s="194"/>
       <c r="H16" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="240"/>
+      <c r="I16" s="315" t="s">
+        <v>67</v>
+      </c>
       <c r="J16" s="164"/>
       <c r="K16" s="159" t="s">
         <v>171</v>
@@ -3074,12 +3125,12 @@
       <c r="E17" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="248"/>
+      <c r="F17" s="309"/>
       <c r="G17" s="194"/>
       <c r="H17" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="305"/>
+      <c r="I17" s="312"/>
       <c r="J17" s="164"/>
       <c r="K17" s="160" t="s">
         <v>143</v>
@@ -3100,12 +3151,12 @@
       <c r="E18" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="239"/>
+      <c r="F18" s="296"/>
       <c r="G18" s="164"/>
       <c r="H18" s="208" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="307"/>
+      <c r="I18" s="316"/>
       <c r="J18" s="164"/>
       <c r="K18" s="212"/>
       <c r="L18" s="165"/>
@@ -3113,24 +3164,23 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="188"/>
-      <c r="B19" s="255" t="s">
+      <c r="B19" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="293" t="str">
-        <f>IF(OR('Data Input'!C14="Yes",'Data Input'!C15&gt;0)*AND('Data Input'!F9&lt;&gt;"Yes",'Data Input'!F10&lt;&gt;"Yes",'Data Input'!F11&lt;&gt;"Yes",'Data Input'!C20&lt;&gt;"",'Data Input'!C20&gt;0),"Yes","No")</f>
-        <v>No</v>
+      <c r="C19" s="311" t="s">
+        <v>67</v>
       </c>
       <c r="D19" s="191"/>
       <c r="E19" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="248"/>
+      <c r="F19" s="309"/>
       <c r="G19" s="188"/>
       <c r="J19" s="164"/>
-      <c r="K19" s="322" t="s">
+      <c r="K19" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="L19" s="323"/>
+      <c r="L19" s="322"/>
       <c r="M19" s="164"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3143,15 +3193,15 @@
       <c r="E20" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="249"/>
+      <c r="F20" s="313"/>
       <c r="G20" s="188"/>
       <c r="H20" s="164"/>
       <c r="I20" s="164"/>
       <c r="J20" s="164"/>
-      <c r="K20" s="272" t="s">
+      <c r="K20" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="291" t="e">
+      <c r="L20" s="286" t="e">
         <f ca="1">'Flip Sheets'!C33</f>
         <v>#VALUE!</v>
       </c>
@@ -3159,18 +3209,18 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="188"/>
-      <c r="B21" s="255" t="s">
+      <c r="B21" s="250" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="297">
-        <v>0.75</v>
+      <c r="C21" s="290">
+        <v>0</v>
       </c>
       <c r="D21" s="194"/>
       <c r="J21" s="164"/>
-      <c r="K21" s="274" t="s">
+      <c r="K21" s="269" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="273" t="e">
+      <c r="L21" s="268" t="e">
         <f ca="1">'Flip Sheets'!F33</f>
         <v>#VALUE!</v>
       </c>
@@ -3181,7 +3231,7 @@
       <c r="B22" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="298"/>
+      <c r="C22" s="312"/>
       <c r="D22" s="194"/>
       <c r="E22" s="215" t="s">
         <v>61</v>
@@ -3191,10 +3241,10 @@
       <c r="H22" s="217"/>
       <c r="I22" s="218"/>
       <c r="J22" s="164"/>
-      <c r="K22" s="275" t="s">
+      <c r="K22" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="292" t="e">
+      <c r="L22" s="287" t="e">
         <f ca="1">'Flip Sheets'!H33</f>
         <v>#VALUE!</v>
       </c>
@@ -3205,16 +3255,16 @@
       <c r="B23" s="211" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="249"/>
+      <c r="C23" s="313"/>
       <c r="D23" s="194"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="325"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="326"/>
+      <c r="E23" s="323"/>
+      <c r="F23" s="324"/>
+      <c r="G23" s="324"/>
+      <c r="H23" s="324"/>
+      <c r="I23" s="325"/>
       <c r="J23" s="164"/>
-      <c r="K23" s="289"/>
-      <c r="L23" s="290"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="285"/>
       <c r="M23" s="164"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3222,16 +3272,16 @@
       <c r="B24" s="164"/>
       <c r="C24" s="213"/>
       <c r="D24" s="194"/>
-      <c r="E24" s="327"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="328"/>
-      <c r="I24" s="329"/>
+      <c r="E24" s="326"/>
+      <c r="F24" s="327"/>
+      <c r="G24" s="327"/>
+      <c r="H24" s="327"/>
+      <c r="I24" s="328"/>
       <c r="J24" s="164"/>
-      <c r="K24" s="316" t="s">
+      <c r="K24" s="305" t="s">
         <v>178</v>
       </c>
-      <c r="L24" s="317" t="e">
+      <c r="L24" s="306" t="e">
         <f ca="1">Tables!J22-Tables!J29</f>
         <v>#VALUE!</v>
       </c>
@@ -3244,11 +3294,11 @@
       </c>
       <c r="C25" s="214"/>
       <c r="D25" s="194"/>
-      <c r="E25" s="327"/>
-      <c r="F25" s="328"/>
-      <c r="G25" s="328"/>
-      <c r="H25" s="328"/>
-      <c r="I25" s="329"/>
+      <c r="E25" s="326"/>
+      <c r="F25" s="327"/>
+      <c r="G25" s="327"/>
+      <c r="H25" s="327"/>
+      <c r="I25" s="328"/>
       <c r="J25" s="164"/>
       <c r="K25" s="164"/>
       <c r="L25" s="165"/>
@@ -3256,31 +3306,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="188"/>
-      <c r="B26" s="276" t="s">
+      <c r="B26" s="271" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="299"/>
+      <c r="C26" s="295"/>
       <c r="D26" s="194"/>
-      <c r="E26" s="327"/>
-      <c r="F26" s="328"/>
-      <c r="G26" s="328"/>
-      <c r="H26" s="328"/>
-      <c r="I26" s="329"/>
+      <c r="E26" s="326"/>
+      <c r="F26" s="327"/>
+      <c r="G26" s="327"/>
+      <c r="H26" s="327"/>
+      <c r="I26" s="328"/>
       <c r="J26" s="164"/>
       <c r="M26" s="164"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="188"/>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="308" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="296"/>
+      <c r="C27" s="314"/>
       <c r="D27" s="194"/>
-      <c r="E27" s="327"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="328"/>
-      <c r="I27" s="329"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="327"/>
+      <c r="H27" s="327"/>
+      <c r="I27" s="328"/>
       <c r="J27" s="164"/>
       <c r="K27" s="219"/>
       <c r="L27" s="220"/>
@@ -3293,27 +3343,29 @@
       </c>
       <c r="C28" s="296"/>
       <c r="D28" s="194"/>
-      <c r="E28" s="327"/>
-      <c r="F28" s="328"/>
-      <c r="G28" s="328"/>
-      <c r="H28" s="328"/>
-      <c r="I28" s="329"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="327"/>
+      <c r="G28" s="327"/>
+      <c r="H28" s="327"/>
+      <c r="I28" s="328"/>
       <c r="J28" s="164"/>
       <c r="K28" s="219"/>
       <c r="M28" s="164"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="188"/>
-      <c r="B29" s="255" t="s">
+      <c r="B29" s="250" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="240"/>
+      <c r="C29" s="237" t="s">
+        <v>67</v>
+      </c>
       <c r="D29" s="194"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="328"/>
-      <c r="G29" s="328"/>
-      <c r="H29" s="328"/>
-      <c r="I29" s="329"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="327"/>
+      <c r="I29" s="328"/>
       <c r="J29" s="164"/>
       <c r="K29" s="219"/>
       <c r="L29" s="222"/>
@@ -3324,15 +3376,13 @@
       <c r="B30" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="300">
-        <v>6</v>
-      </c>
+      <c r="C30" s="291"/>
       <c r="D30" s="194"/>
-      <c r="E30" s="327"/>
-      <c r="F30" s="328"/>
-      <c r="G30" s="328"/>
-      <c r="H30" s="328"/>
-      <c r="I30" s="329"/>
+      <c r="E30" s="326"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="327"/>
+      <c r="I30" s="328"/>
       <c r="J30" s="164"/>
       <c r="K30" s="219"/>
       <c r="L30" s="220"/>
@@ -3343,15 +3393,15 @@
       <c r="B31" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="301">
+      <c r="C31" s="292">
         <v>0.05</v>
       </c>
       <c r="D31" s="194"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="328"/>
-      <c r="H31" s="328"/>
-      <c r="I31" s="329"/>
+      <c r="E31" s="326"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="327"/>
+      <c r="I31" s="328"/>
       <c r="J31" s="164"/>
       <c r="K31" s="219"/>
       <c r="L31" s="220"/>
@@ -3362,15 +3412,15 @@
       <c r="B32" s="208" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="302">
+      <c r="C32" s="293">
         <v>0.35</v>
       </c>
       <c r="D32" s="194"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="331"/>
-      <c r="G32" s="331"/>
-      <c r="H32" s="331"/>
-      <c r="I32" s="332"/>
+      <c r="E32" s="329"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="331"/>
       <c r="J32" s="164"/>
       <c r="K32" s="219"/>
       <c r="L32" s="220"/>
@@ -3387,7 +3437,7 @@
       <c r="M34" s="147"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="plRIxWnjwlPp/Gyc+sZf1BpkoQrRT8zKRaBxPrgANaelZPQYIe+JOeyFqmLYBHpYVxPB2VEv31DyQqIH6h63Mg==" saltValue="QXZ8wZvYmKXkCUN0nfdsbA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
   <mergeCells count="4">
     <mergeCell ref="K5:L5"/>
@@ -3400,7 +3450,7 @@
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20 F18 C27:C28 I14 C12 C23 I17 C20 C18 C30 I3:I12">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18 I17 C22:C23 I3:I12 C12 C20 I14:I15 C18 F3:F4 C30 F20 C26:C28">
       <formula1>-1000000</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C15">
@@ -3418,48 +3468,42 @@
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tables!$I$2:$I$8</xm:f>
           </x14:formula1>
           <xm:sqref>C13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tables!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F6</xm:sqref>
+          <xm:sqref>C29 F5:F11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Tables!$J$2:$J$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tables!$J$2:$J$4</xm:f>
           </x14:formula1>
           <xm:sqref>I16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tables!$J$2:$J$4</xm:f>
           </x14:formula1>
           <xm:sqref>C14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tables!$J$2:$J$4</xm:f>
           </x14:formula1>
           <xm:sqref>I13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tables!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F11</xm:sqref>
+          <xm:sqref>C19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3472,7 +3516,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I41"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,13 +3549,13 @@
       <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="335">
+      <c r="C2" s="332">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="336"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="333"/>
       <c r="G2" s="43"/>
       <c r="H2" s="44" t="s">
         <v>44</v>
@@ -3523,8 +3567,8 @@
       <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="311">
-        <f>'Data Input'!C4</f>
+      <c r="C3" s="300">
+        <f>'Data Input'!C5</f>
         <v>0</v>
       </c>
       <c r="D3" s="25"/>
@@ -3537,22 +3581,22 @@
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="84">
-        <f>'Data Input'!C28</f>
+        <f>'Data Input'!C30</f>
         <v>0</v>
       </c>
       <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="340"/>
+      <c r="C4" s="337"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="340"/>
+      <c r="F4" s="337"/>
       <c r="G4" s="49"/>
       <c r="H4" s="50" t="s">
         <v>42</v>
@@ -3745,13 +3789,13 @@
       <c r="B15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="335">
+      <c r="C15" s="332">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D15" s="335"/>
-      <c r="E15" s="335"/>
-      <c r="F15" s="336"/>
+      <c r="D15" s="332"/>
+      <c r="E15" s="332"/>
+      <c r="F15" s="333"/>
       <c r="G15" s="43"/>
       <c r="H15" s="138" t="s">
         <v>44</v>
@@ -3763,7 +3807,7 @@
       <c r="B16" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="311">
+      <c r="C16" s="300">
         <f>'Data Input'!C4</f>
         <v>0</v>
       </c>
@@ -3777,22 +3821,22 @@
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="139">
-        <f>'Data Input'!C28</f>
+        <f>'Data Input'!C30</f>
         <v>0</v>
       </c>
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="337" t="s">
+      <c r="B17" s="334" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="338"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="337" t="s">
+      <c r="E17" s="334" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="338"/>
+      <c r="F17" s="335"/>
       <c r="G17" s="59"/>
       <c r="H17" s="60" t="s">
         <v>62</v>
@@ -4026,13 +4070,13 @@
       <c r="B30" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="335">
+      <c r="C30" s="332">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D30" s="335"/>
-      <c r="E30" s="335"/>
-      <c r="F30" s="336"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="333"/>
       <c r="G30" s="43"/>
       <c r="H30" s="64"/>
       <c r="I30" s="39"/>
@@ -4042,7 +4086,7 @@
       <c r="B31" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="311">
+      <c r="C31" s="300">
         <f>'Data Input'!C4</f>
         <v>0</v>
       </c>
@@ -4060,15 +4104,15 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
-      <c r="B32" s="333" t="s">
+      <c r="B32" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="334"/>
+      <c r="C32" s="339"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="333" t="s">
+      <c r="E32" s="338" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="334"/>
+      <c r="F32" s="339"/>
       <c r="G32" s="49"/>
       <c r="H32" s="67" t="s">
         <v>40</v>
@@ -4112,15 +4156,15 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
-      <c r="B35" s="333" t="s">
+      <c r="B35" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="334"/>
+      <c r="C35" s="339"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="333" t="s">
+      <c r="E35" s="338" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="334"/>
+      <c r="F35" s="339"/>
       <c r="G35" s="49"/>
       <c r="H35" s="67" t="s">
         <v>54</v>
@@ -4254,19 +4298,19 @@
       <c r="I41" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6AkjZXVSFB0ziVOXcrpeHhh/HLATkbQVxrQZuEWcVLXwzsunA6rRgTpZldJaFHDBfmDujtzSf7DiifC4AGzaPQ==" saltValue="N+SbVL6VG7pgvFTwtEdyCA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="11">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E39">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
@@ -4284,7 +4328,7 @@
   <dimension ref="A1:O399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,14 +4370,14 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="301" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="E2" s="341" t="s">
+      <c r="C2" s="302"/>
+      <c r="E2" s="340" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="342"/>
+      <c r="F2" s="341"/>
       <c r="J2" s="163"/>
       <c r="K2" s="164">
         <v>1</v>
@@ -4351,14 +4395,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="E3" s="281" t="s">
+      <c r="C3" s="241">
+        <v>0</v>
+      </c>
+      <c r="E3" s="276" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="287">
+      <c r="F3" s="282">
         <f>C18</f>
         <v>0</v>
       </c>
@@ -4384,16 +4430,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="250" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="242" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="283" t="s">
+      <c r="E4" s="278" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="282">
+      <c r="F4" s="277">
         <f>F20</f>
         <v>-110</v>
       </c>
@@ -4419,14 +4465,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="314" t="s">
+      <c r="B5" s="303" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="E5" s="283" t="s">
+      <c r="C5" s="241">
+        <v>0</v>
+      </c>
+      <c r="E5" s="278" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="286" t="e">
+      <c r="F5" s="281" t="e">
         <f>H12</f>
         <v>#N/A</v>
       </c>
@@ -4452,16 +4500,18 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="314" t="s">
+      <c r="B6" s="303" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="E6" s="283" t="s">
+      <c r="C6" s="243">
+        <v>0</v>
+      </c>
+      <c r="E6" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="284" t="e">
+      <c r="F6" s="279">
         <f>H14</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J6" s="163"/>
       <c r="K6" s="164">
@@ -4485,14 +4535,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="303" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="E7" s="285" t="s">
+      <c r="C7" s="241">
+        <v>0</v>
+      </c>
+      <c r="E7" s="280" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="288" t="e">
+      <c r="F7" s="283" t="e">
         <f>H16</f>
         <v>#N/A</v>
       </c>
@@ -4518,10 +4570,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="304" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="245"/>
+      <c r="C8" s="244">
+        <v>0</v>
+      </c>
       <c r="J8" s="163"/>
       <c r="K8" s="164">
         <v>7</v>
@@ -4601,13 +4655,13 @@
       <c r="B11" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="335">
+      <c r="C11" s="332">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D11" s="335"/>
-      <c r="E11" s="335"/>
-      <c r="F11" s="336"/>
+      <c r="D11" s="332"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="333"/>
       <c r="G11" s="39"/>
       <c r="H11" s="148" t="s">
         <v>165</v>
@@ -4639,11 +4693,11 @@
       <c r="B12" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="347">
+      <c r="C12" s="346">
         <f>'Rental Model'!C6</f>
         <v>0</v>
       </c>
-      <c r="D12" s="347"/>
+      <c r="D12" s="346"/>
       <c r="E12" s="41" t="s">
         <v>158</v>
       </c>
@@ -4682,11 +4736,11 @@
       <c r="B13" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="348" t="e">
+      <c r="C13" s="347">
         <f>IF('Rental Model'!C8="",MATCH(1,INDEX(--(O2:O97&gt;F13),0),0),'Rental Model'!C7)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="348"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="347"/>
       <c r="E13" s="171" t="s">
         <v>169</v>
       </c>
@@ -4720,19 +4774,19 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
-      <c r="B14" s="343" t="s">
+      <c r="B14" s="342" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="344"/>
+      <c r="C14" s="343"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="345" t="s">
+      <c r="E14" s="344" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="346"/>
+      <c r="F14" s="345"/>
       <c r="G14" s="39"/>
-      <c r="H14" s="150" t="e">
+      <c r="H14" s="150">
         <f>C13</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I14" s="39"/>
       <c r="K14" s="164">
@@ -4760,7 +4814,7 @@
       <c r="B15" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="280">
+      <c r="C15" s="275">
         <f>'Rental Model'!C3</f>
         <v>0</v>
       </c>
@@ -4768,7 +4822,7 @@
       <c r="E15" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="280">
+      <c r="F15" s="275">
         <f>'Rental Model'!C7</f>
         <v>0</v>
       </c>
@@ -4802,7 +4856,7 @@
       <c r="B16" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="280">
+      <c r="C16" s="275">
         <f>'Rental Model'!C5</f>
         <v>0</v>
       </c>
@@ -4886,7 +4940,7 @@
       <c r="B18" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="280">
+      <c r="C18" s="275">
         <f>SUM(C15:C17)</f>
         <v>0</v>
       </c>
@@ -12368,13 +12422,13 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
@@ -12398,19 +12452,19 @@
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="349">
+      <c r="B1" s="348">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
       <c r="F1" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="308">
+      <c r="G1" s="297">
         <f>'Data Input'!C30</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I1" s="90" t="s">
         <v>108</v>
@@ -12418,10 +12472,10 @@
       <c r="J1" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="352" t="s">
+      <c r="L1" s="351" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="353"/>
+      <c r="M1" s="352"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -12444,7 +12498,7 @@
       <c r="F2" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="309">
+      <c r="G2" s="298">
         <f>'Data Input'!C32</f>
         <v>0.35</v>
       </c>
@@ -12453,14 +12507,14 @@
       <c r="L2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="351" t="s">
+      <c r="M2" s="350" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="351"/>
-      <c r="O2" s="354" t="s">
+      <c r="N2" s="350"/>
+      <c r="O2" s="353" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="354"/>
+      <c r="P2" s="353"/>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12482,7 +12536,7 @@
       <c r="F3" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="310">
+      <c r="G3" s="299">
         <v>0</v>
       </c>
       <c r="I3" s="92" t="s">
@@ -12495,16 +12549,16 @@
         <f ca="1">Tables!B6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M3" s="355" t="e">
+      <c r="M3" s="354" t="e">
         <f ca="1">IF(Tables!F13&gt;=Tables!B6,Tables!B6,Tables!F13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="355"/>
-      <c r="O3" s="355" t="e">
+      <c r="N3" s="354"/>
+      <c r="O3" s="354" t="e">
         <f ca="1">Tables!F13-Tables!M3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P3" s="355"/>
+      <c r="P3" s="354"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12556,14 +12610,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="262" t="e">
+      <c r="B6" s="257" t="e">
         <f ca="1">(F6-SUM(B7:B19,B21:B25,B28:B29,B31:B32,B34:B36,F7:F11)-(SUM(B7:B19,B21:B25,B28:B29,B31:B32,B34:B36)*G2))/((G2*1.0058)+1.0058)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C6" s="256">
+      <c r="C6" s="251">
         <v>1</v>
       </c>
       <c r="E6" s="101" t="s">
@@ -12601,11 +12655,11 @@
       <c r="A7" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="263">
+      <c r="B7" s="258">
         <f>'Data Input'!I3*(1+(C7*'Data Input'!C30))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="257">
+      <c r="C7" s="252">
         <f>0.09/12</f>
         <v>7.4999999999999997E-3</v>
       </c>
@@ -12643,11 +12697,11 @@
       <c r="A8" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="263">
+      <c r="B8" s="258">
         <f>'Data Input'!I4*C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="258">
+      <c r="C8" s="253">
         <v>1</v>
       </c>
       <c r="E8" s="101" t="s">
@@ -12685,11 +12739,11 @@
       <c r="A9" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="263">
+      <c r="B9" s="258">
         <f>'Data Input'!I5*C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="258">
+      <c r="C9" s="253">
         <v>1</v>
       </c>
       <c r="E9" s="101" t="s">
@@ -12725,11 +12779,11 @@
       <c r="A10" s="200" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="263">
+      <c r="B10" s="258">
         <f>'Data Input'!I6*C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="258">
+      <c r="C10" s="253">
         <v>1</v>
       </c>
       <c r="E10" s="101" t="s">
@@ -12767,11 +12821,11 @@
       <c r="A11" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="263">
+      <c r="B11" s="258">
         <f>'Data Input'!I7*C11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="258">
+      <c r="C11" s="253">
         <v>1</v>
       </c>
       <c r="E11" s="101" t="s">
@@ -12812,11 +12866,11 @@
       <c r="A12" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="263">
+      <c r="B12" s="258">
         <f>'Data Input'!I8*C12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="258">
+      <c r="C12" s="253">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -12848,11 +12902,11 @@
       <c r="A13" s="200" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="263">
+      <c r="B13" s="258">
         <f>'Data Input'!I9*C13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="258">
+      <c r="C13" s="253">
         <v>0.15</v>
       </c>
       <c r="E13" s="101" t="s">
@@ -12883,11 +12937,11 @@
       <c r="A14" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="263">
+      <c r="B14" s="258">
         <f>'Data Input'!I10*C14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="258">
+      <c r="C14" s="253">
         <v>0.4</v>
       </c>
       <c r="E14" s="101" t="s">
@@ -12910,14 +12964,14 @@
       <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="254" t="s">
+      <c r="A15" s="249" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="263">
+      <c r="B15" s="258">
         <f>'Data Input'!I11*C15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="259">
+      <c r="C15" s="254">
         <f>IF('Data Input'!I11&lt;12500,100%,0%)</f>
         <v>1</v>
       </c>
@@ -12937,10 +12991,10 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="351" t="s">
+      <c r="M15" s="350" t="s">
         <v>180</v>
       </c>
-      <c r="N15" s="351"/>
+      <c r="N15" s="350"/>
       <c r="O15" s="106"/>
       <c r="P15" s="233" t="s">
         <v>36</v>
@@ -12953,11 +13007,11 @@
       <c r="A16" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="263">
+      <c r="B16" s="258">
         <f>'Data Input'!I12*C16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="259">
+      <c r="C16" s="254">
         <f>IF('Data Input'!I12&lt;12500,100%,0%)</f>
         <v>1</v>
       </c>
@@ -12993,11 +13047,11 @@
       <c r="A17" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="263">
+      <c r="B17" s="258">
         <f>'Data Input'!I14*C17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="259">
+      <c r="C17" s="254">
         <v>1</v>
       </c>
       <c r="E17" s="101" t="s">
@@ -13013,14 +13067,14 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="254" t="s">
+      <c r="A18" s="249" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="263">
+      <c r="B18" s="258">
         <f>'Data Input'!I15*C18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="259">
+      <c r="C18" s="254">
         <v>1</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -13039,11 +13093,11 @@
       <c r="A19" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="264">
+      <c r="B19" s="259">
         <f ca="1">IF('Data Input'!I17="",0,'Data Input'!I17*(1+(TODAY()+180-'Data Input'!I18)*C19))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="260">
+      <c r="C19" s="255">
         <f>9%/365</f>
         <v>2.4657534246575342E-4</v>
       </c>
@@ -13111,7 +13165,7 @@
       </c>
       <c r="C22" s="123">
         <f>'Data Input'!C21</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E22" s="104" t="s">
         <v>15</v>
@@ -13183,7 +13237,7 @@
       </c>
       <c r="C25" s="124"/>
       <c r="D25" s="109"/>
-      <c r="E25" s="277"/>
+      <c r="E25" s="272"/>
       <c r="F25" s="105"/>
       <c r="G25" s="109"/>
       <c r="I25" s="227" t="s">
@@ -13202,7 +13256,7 @@
       <c r="B26" s="121"/>
       <c r="C26" s="128"/>
       <c r="D26" s="109"/>
-      <c r="E26" s="277"/>
+      <c r="E26" s="272"/>
       <c r="F26" s="109"/>
       <c r="G26" s="109"/>
       <c r="I26" s="230" t="s">
@@ -13224,7 +13278,7 @@
       </c>
       <c r="C27" s="124"/>
       <c r="D27" s="108"/>
-      <c r="E27" s="277"/>
+      <c r="E27" s="272"/>
       <c r="F27" s="108"/>
       <c r="G27" s="108"/>
       <c r="I27" s="135"/>
@@ -13240,7 +13294,7 @@
       </c>
       <c r="C28" s="125"/>
       <c r="D28" s="108"/>
-      <c r="E28" s="277"/>
+      <c r="E28" s="272"/>
       <c r="F28" s="106"/>
       <c r="G28" s="108"/>
       <c r="I28" s="223" t="s">
@@ -13258,7 +13312,7 @@
         <v>1250</v>
       </c>
       <c r="C29" s="125"/>
-      <c r="E29" s="277"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="106"/>
       <c r="I29" s="225" t="s">
         <v>167</v>
@@ -13278,7 +13332,7 @@
       </c>
       <c r="B30" s="120"/>
       <c r="C30" s="129"/>
-      <c r="E30" s="277"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="106"/>
       <c r="I30" s="227" t="s">
         <v>8</v>
@@ -13301,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="126"/>
-      <c r="E31" s="277"/>
+      <c r="E31" s="272"/>
       <c r="F31" s="106"/>
       <c r="I31" s="227" t="s">
         <v>17</v>
@@ -13323,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="126"/>
-      <c r="E32" s="277"/>
+      <c r="E32" s="272"/>
       <c r="F32" s="106"/>
       <c r="I32" s="227" t="s">
         <v>171</v>
@@ -13340,7 +13394,7 @@
       </c>
       <c r="B33" s="121"/>
       <c r="C33" s="129"/>
-      <c r="E33" s="277"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="106"/>
       <c r="I33" s="230" t="s">
         <v>143</v>
@@ -13361,7 +13415,7 @@
       </c>
       <c r="C34" s="126"/>
       <c r="D34" s="108"/>
-      <c r="E34" s="278"/>
+      <c r="E34" s="273"/>
       <c r="F34" s="106"/>
       <c r="L34"/>
     </row>
@@ -13375,7 +13429,7 @@
       </c>
       <c r="C35" s="126"/>
       <c r="D35" s="108"/>
-      <c r="E35" s="277"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="106"/>
       <c r="L35"/>
     </row>
@@ -13388,28 +13442,28 @@
         <v>0</v>
       </c>
       <c r="C36" s="127"/>
-      <c r="E36" s="277"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="106"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N37" s="277"/>
+      <c r="N37" s="272"/>
       <c r="O37" s="106"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N38" s="278"/>
+      <c r="N38" s="273"/>
       <c r="O38" s="106"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N39" s="277"/>
+      <c r="N39" s="272"/>
       <c r="O39" s="106"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N40" s="277"/>
+      <c r="N40" s="272"/>
       <c r="O40" s="106"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N41" s="279"/>
+      <c r="N41" s="274"/>
       <c r="O41" s="106"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">

--- a/IntranetPortal/IntranetPortal/App_Data/underwriter.xlsx
+++ b/IntranetPortal/IntranetPortal/App_Data/underwriter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TasksWebApplication\IntranetPortal\IntranetPortal\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="201">
   <si>
     <t>Property Address:</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Net Rent</t>
+  </si>
+  <si>
+    <t>Version 1.0</t>
   </si>
 </sst>
 </file>
@@ -2245,6 +2248,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -2266,14 +2277,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2680,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,15 +3429,20 @@
       <c r="L32" s="220"/>
       <c r="M32" s="164"/>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
       <c r="F33" s="69"/>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J34" s="147"/>
       <c r="M34" s="147"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="71" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -3549,13 +3557,13 @@
       <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="332">
+      <c r="C2" s="334">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="333"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="335"/>
       <c r="G2" s="43"/>
       <c r="H2" s="44" t="s">
         <v>44</v>
@@ -3588,15 +3596,15 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="338" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="337"/>
+      <c r="C4" s="339"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="336" t="s">
+      <c r="E4" s="338" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="337"/>
+      <c r="F4" s="339"/>
       <c r="G4" s="49"/>
       <c r="H4" s="50" t="s">
         <v>42</v>
@@ -3789,13 +3797,13 @@
       <c r="B15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="332">
+      <c r="C15" s="334">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="333"/>
+      <c r="D15" s="334"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="335"/>
       <c r="G15" s="43"/>
       <c r="H15" s="138" t="s">
         <v>44</v>
@@ -3828,15 +3836,15 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="334" t="s">
+      <c r="B17" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="335"/>
+      <c r="C17" s="337"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="334" t="s">
+      <c r="E17" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="335"/>
+      <c r="F17" s="337"/>
       <c r="G17" s="59"/>
       <c r="H17" s="60" t="s">
         <v>62</v>
@@ -4070,13 +4078,13 @@
       <c r="B30" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="332">
+      <c r="C30" s="334">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="333"/>
+      <c r="D30" s="334"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="335"/>
       <c r="G30" s="43"/>
       <c r="H30" s="64"/>
       <c r="I30" s="39"/>
@@ -4104,15 +4112,15 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
-      <c r="B32" s="338" t="s">
+      <c r="B32" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="339"/>
+      <c r="C32" s="333"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="338" t="s">
+      <c r="E32" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="339"/>
+      <c r="F32" s="333"/>
       <c r="G32" s="49"/>
       <c r="H32" s="67" t="s">
         <v>40</v>
@@ -4156,15 +4164,15 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
-      <c r="B35" s="338" t="s">
+      <c r="B35" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="339"/>
+      <c r="C35" s="333"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="338" t="s">
+      <c r="E35" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="339"/>
+      <c r="F35" s="333"/>
       <c r="G35" s="49"/>
       <c r="H35" s="67" t="s">
         <v>54</v>
@@ -4300,17 +4308,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="11">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E39">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
@@ -4655,13 +4663,13 @@
       <c r="B11" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="332">
+      <c r="C11" s="334">
         <f>'Data Input'!C3</f>
         <v>0</v>
       </c>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="333"/>
+      <c r="D11" s="334"/>
+      <c r="E11" s="334"/>
+      <c r="F11" s="335"/>
       <c r="G11" s="39"/>
       <c r="H11" s="148" t="s">
         <v>165</v>
